--- a/breeding_patterns - win, sum/all male, female F1 mice/IS - Mice_Births_By_Sex_and_Season.xlsx
+++ b/breeding_patterns - win, sum/all male, female F1 mice/IS - Mice_Births_By_Sex_and_Season.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">YearGroup</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t xml:space="preserve">2018-2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-2023</t>
   </si>
 </sst>
 </file>
@@ -508,17 +505,6 @@
         <v>234</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="n">
-        <v>203</v>
-      </c>
-      <c r="C12" t="n">
-        <v>237</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -654,17 +640,6 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="n">
-        <v>302</v>
-      </c>
-      <c r="C12" t="n">
-        <v>286</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -800,17 +775,6 @@
         <v>425</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="n">
-        <v>505</v>
-      </c>
-      <c r="C12" t="n">
-        <v>523</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
